--- a/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzBgdMmtSysTestProject\project_data\machaccnt_pay_dispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE3FB3-D233-4728-81F1-F0DCEF7327F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902CC96-2374-48D2-973B-67691AB33029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="217">
   <si>
     <t>级别</t>
   </si>
@@ -413,6 +413,510 @@
   </si>
   <si>
     <t>活动记账接口trans_no校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_no(交易流水号)
+trans_no为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_no(交易流水号)
+trans_no为超长字符串 超过32位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_no(交易流水号)
+trans_no为特殊字符(/ | ^ * ？)等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_no(交易流水号)
+trans_no为空格等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的活动记账传参，单独对流水号字段进行验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "21111111111111111111111111111111111111111111111111111111111111111111111111111111111111","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"101","message":"必输参数不能为空:{[trans_no]参数}"}</t>
+  </si>
+  <si>
+    <t>交易流水号不传验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流水号超过数据库字段限制验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流水号特殊字符验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "\\201","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": " ","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"101","message":"必输参数不能为空:{[trans_no]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流水号为空格验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账接口trans_time校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time(交易完成时间)
+trans_time为大于今日的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time(交易完成时间)
+trans_time格式错误如：2020/01/11 14:35:41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time(交易完成时间)
+trans_time不填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time(交易完成时间)
+trans_time为超长数据大于32位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的活动记账传参，单独对交易完成时间字段进行验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020/01/11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time大于今日的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time格式不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "1222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222223", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"101","message":"必输参数不能为空:{[trans_time]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time为空校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time为超长数据格式校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账接口split_accnt_detail校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>split_accnt_detail数据结构
+为非[]的数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2099-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统出错，清联系项目组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账接口order_no校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no
+同一请求中包含两个相同的oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no
+请求中包含数据库存在的oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no
+不输入oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no
+输入超长的oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试同一请求中包含两个oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD120191211234801 数据库已经存在的订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试不输入oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试输入超长的oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail":{}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1},{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "DD120191211234801", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "2133333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333333", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果请求接口的子商户类型为准备金两个相同的orderid会有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"500"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"必输参数不能为空{order_no}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过数据库长度限制的oder_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账接口amount校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount(交易金额)
+不输入交易金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount(交易金额)
+为字符串类型(非int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount(交易金额)
+为float类型(非int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount(交易金额)
+为过大的int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount(交易金额)
+交易金额为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "sadasdasdas", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "1.12", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "99999999999999999999999999999999999999", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "-2", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"必输参数不能为空{amount}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"分账金额有误{amount}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount为字符串类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount为float类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount为超长的int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_amt为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账接口dispatch_event校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_event(记账事件)
+记账事件为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_event(记账事件)
+记账事件不为coupon,redpacket,subsidy但存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_event(记账事件)
+记账事件不为coupon,redpacket,subsidy且不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的活动记账传参，对子商户信息数据结构进行测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的活动记账传参，单独对子商户交易金额字段进行验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的活动记账传参，单独对记账事件字段进行验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"必输参数不能为空{dispatch_event}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"105","message":"未开通该接口权限"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "pay", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "asdasdasd", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账接口mch_accnt_no校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no(子商户号)
+子商户号类型为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no(子商户号)
+子商户号类型为数据库不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no(子商户号)
+子商户号类型为其他类型的商户，如备用金本身账户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的活动记账传参，单独对子商户号字段进行验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_event为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_event为字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch_event为pay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户有充足的准备金
+2.请求的子商户类型为子账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账正常流程测试用例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"0000","message":"success"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证活动记账流程的数量与类型
+1.验证准备金账户的余额变化，结算金额变化
+2.验证传入子商户的余额变化
+3.验证准备金明细数据插入
+4.验证传入子商户的明细数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1},{"order_no": "test2", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "profit_2", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商户有准备金账户的前提下：2条活动金额记账,类型为coupon,分别为分润和子商户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商户有准备金账户的前提下：1条活动金额记账,类型为coupon,为子商户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商户有准备金账户的前提下：3条活动金额记账,类型为coupon,redpacket,subsidy， 2个子商户一个分润商户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1},{"order_no": "test2", "amount": "20", "dispatch_event": "redpacket", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1},{"order_no": "test3", "amount": "20", "dispatch_event": "subsidy", "dispatch_type": "2", "mch_accnt_no": "profit_2", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个商户下有一个以上的准备金账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备数据T0020181229191337000001
+准备金账户(多个测试时需要修改类型)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账异常流程测试有多个准备金账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账异常流程测试没有准备金账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个商户下没有准备金账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备数据将准备金账户的类型进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"请检查该商户的准备金账号个数"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"该商户没有准备金账号"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证多个准备金账户异常流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证没有准备金账户异常流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动记账异常流程测试备用金账户余额不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用金账户余额不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备数据将备用金账户金额修改为0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"准备金余额不足"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备金余额不足异常流程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -825,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,57 +1392,113 @@
       <c r="C2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="218.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
@@ -946,406 +1506,776 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="J21" s="10"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27"/>
-      <c r="K27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28"/>
-      <c r="K28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29"/>
-      <c r="K29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30"/>
-      <c r="K30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32"/>
-      <c r="K32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -1359,8 +2289,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -1374,8 +2304,8 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
@@ -1389,8 +2319,8 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -1404,8 +2334,8 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -1419,8 +2349,8 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
@@ -1434,8 +2364,8 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
@@ -1449,8 +2379,8 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -1464,8 +2394,8 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
@@ -1479,8 +2409,8 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -1494,7 +2424,8 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="11"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -1508,8 +2439,8 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -1523,8 +2454,8 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44"/>
-      <c r="K44" s="3"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -1538,8 +2469,8 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45"/>
-      <c r="K45" s="3"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -1553,8 +2484,8 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46"/>
-      <c r="K46" s="3"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -1568,8 +2499,8 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47"/>
-      <c r="K47" s="3"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -1583,8 +2514,8 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48"/>
-      <c r="K48" s="3"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
@@ -1859,24 +2790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="15" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -1893,7 +2806,31 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="15" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1901,14 +2838,8 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1926,7 +2857,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1935,7 +2866,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1944,7 +2875,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902CC96-2374-48D2-973B-67691AB33029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B7EAF5-6C38-403B-9155-C1AAF9A4A450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活动记账" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="218">
   <si>
     <t>级别</t>
   </si>
@@ -455,10 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未知错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>交易流水号超过数据库字段限制验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -467,16 +463,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>能成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>交易流水号特殊字符验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"biz_content": {"trans_no": "\\201","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{"biz_content": {"trans_no": " ","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
@@ -564,10 +552,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>系统出错，清联系项目组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活动记账接口order_no校验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -606,10 +590,6 @@
   <si>
     <t>测试输入超长的oder_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail":{}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1},{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
@@ -917,6 +897,30 @@
   </si>
   <si>
     <t>准备金余额不足异常流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[trans_no]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[trans_time]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail":{}}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[split_accnt_detail]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{order_no}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "!@#$","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1329,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,14 +1436,12 @@
         <v>104</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,17 +1462,15 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="9" t="s">
         <v>109</v>
       </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,13 +1491,13 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1510,27 +1510,25 @@
         <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J6"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,27 +1539,25 @@
         <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J7"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,23 +1568,23 @@
         <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="12"/>
@@ -1601,27 +1597,25 @@
         <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="J9"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1632,25 +1626,23 @@
         <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1661,24 +1653,24 @@
         <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -1690,20 +1682,20 @@
         <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="10"/>
@@ -1717,20 +1709,20 @@
         <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="10"/>
@@ -1744,27 +1736,25 @@
         <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1775,23 +1765,23 @@
         <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1804,23 +1794,23 @@
         <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1833,23 +1823,23 @@
         <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1862,23 +1852,23 @@
         <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1891,23 +1881,23 @@
         <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1920,23 +1910,23 @@
         <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1949,23 +1939,23 @@
         <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -1978,23 +1968,23 @@
         <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2007,20 +1997,20 @@
         <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -2032,20 +2022,20 @@
         <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" s="10"/>
     </row>
@@ -2057,20 +2047,20 @@
         <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" s="10"/>
     </row>
@@ -2079,26 +2069,26 @@
         <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2108,26 +2098,26 @@
         <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -2137,26 +2127,26 @@
         <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2166,26 +2156,26 @@
         <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2195,26 +2185,26 @@
         <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -2224,26 +2214,26 @@
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2253,26 +2243,26 @@
         <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2790,6 +2780,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -2806,22 +2805,12 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="15" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2831,14 +2820,24 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="15" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2847,17 +2846,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2875,7 +2865,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B7EAF5-6C38-403B-9155-C1AAF9A4A450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D8EDC-C0DF-4BB4-8EA2-E1EA64A759A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活动记账" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="220">
   <si>
     <t>级别</t>
   </si>
@@ -921,6 +921,16 @@
   </si>
   <si>
     <t>{"biz_content": {"trans_no": "!@#$","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": 2000, "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "mucsub_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户有充足的准备金
+2.请求的子商户类型为子账户和分润商户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户有充足的准备金
+2.请求的子商户类型为子账户和分润商户且记账类型全覆盖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1333,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2107,7 +2117,7 @@
         <v>193</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
@@ -2136,7 +2146,7 @@
         <v>195</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
@@ -2780,15 +2790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -2805,12 +2806,22 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="15" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2820,15 +2831,23 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="15" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2837,17 +2856,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2865,7 +2875,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/活动记账接口测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D8EDC-C0DF-4BB4-8EA2-E1EA64A759A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D09974-24A5-4EE6-85BA-443629CBB905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="231">
   <si>
     <t>级别</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>前置条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -459,10 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>交易流水号特殊字符验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -770,11 +762,6 @@
   <si>
     <t>mch_accnt_no(子商户号)
 子商户号类型为数据库不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_accnt_no(子商户号)
-子商户号类型为其他类型的商户，如备用金本身账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -931,6 +918,64 @@
   <si>
     <t>1.商户有充足的准备金
 2.请求的子商户类型为子账户和分润商户且记账类型全覆盖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test1", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "asdasd", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no(子商户号)
+子商户号类型为其他类型的商户，如备用金本身账户
+T0020181229115338000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"该子商户账号类型不可上报分账-in"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"500","message":"子商户账号不存在-in"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no是空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no是不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no是不可上报分账类型账户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"必输参数不能为空{mch_accnt_no}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"3","severity":"3","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"2","severity":"2","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"1","severity":"1","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"biz_content": {"trans_no": "MH20181229115220NBUu","trans_time": "2020-01-11 14:35:41", "split_accnt_detail": [{"order_no": "test5", "amount": "20", "dispatch_event": "coupon", "dispatch_type": "2", "mch_accnt_no": "prepay_1", "accnt_amt_before": 1}]}, "biz_type": "mchaccnt.promotion.pay.dispatch", "out_trans_no": "225295c2068ae5405cada7edf1670749a6", "sign_type": "MD5", "timestamp": "20191028022240"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1343,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1365,291 +1410,309 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="218.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="J7"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J9"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="10"/>
@@ -1657,55 +1720,59 @@
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="10"/>
@@ -1713,26 +1780,28 @@
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="10"/>
@@ -1740,546 +1809,596 @@
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G20" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="F23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="11" t="s">
-        <v>108</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="11" t="s">
-        <v>108</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2294,7 +2413,7 @@
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2309,7 +2428,7 @@
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2324,7 +2443,7 @@
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2339,7 +2458,7 @@
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2354,7 +2473,7 @@
     </row>
     <row r="38" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2369,7 +2488,7 @@
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2384,7 +2503,7 @@
     </row>
     <row r="40" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2399,7 +2518,7 @@
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2414,7 +2533,7 @@
     </row>
     <row r="42" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2429,7 +2548,7 @@
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2444,7 +2563,7 @@
     </row>
     <row r="44" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2459,7 +2578,7 @@
     </row>
     <row r="45" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2474,7 +2593,7 @@
     </row>
     <row r="46" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2489,7 +2608,7 @@
     </row>
     <row r="47" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2504,7 +2623,7 @@
     </row>
     <row r="48" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2519,7 +2638,7 @@
     </row>
     <row r="49" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2534,7 +2653,7 @@
     </row>
     <row r="50" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2549,7 +2668,7 @@
     </row>
     <row r="51" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2564,7 +2683,7 @@
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2579,7 +2698,7 @@
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2594,7 +2713,7 @@
     </row>
     <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2790,6 +2909,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -2806,7 +2933,7 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="13"/>
   <pixelatorList sheetStid="2"/>
@@ -2815,7 +2942,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="13" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -2824,21 +2951,22 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2847,7 +2975,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2856,7 +2984,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2865,20 +2993,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>